--- a/misc analysis/Correlation from Portvisualizer.xlsx
+++ b/misc analysis/Correlation from Portvisualizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Desktop\portfolio-allocation\misc analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38972B7B-6080-444B-B765-BCD36684D2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C9332A-DE95-4726-8F1B-AB5386DD149F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1EC8239-D76C-4B1B-817A-9402BE5BCB19}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1EC8239-D76C-4B1B-817A-9402BE5BCB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Port Visualizer" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -186,12 +186,33 @@
   <si>
     <t>https://www.portfoliovisualizer.com/asset-correlations?s=y&amp;symbols=VT%2CSHY%2CTLT%2CVNQ%2CXLU%2CDBC%2CGLD&amp;timePeriod=2&amp;tradingDays=20&amp;months=36</t>
   </si>
+  <si>
+    <t>BONDS</t>
+  </si>
+  <si>
+    <t>REAL ESTATE</t>
+  </si>
+  <si>
+    <t>COMO</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>XLU</t>
+  </si>
+  <si>
+    <t>Utilities Select Sector SPDR ETF</t>
+  </si>
+  <si>
+    <t>Notes on results:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +268,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +332,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFAFE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -336,7 +377,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -379,38 +420,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -419,6 +491,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCFAFE7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -727,119 +804,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936F9293-0876-43FA-8AA4-D9BE0EABDCE6}">
-  <dimension ref="A1:AK58"/>
+  <dimension ref="A1:AK83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="4" customWidth="1"/>
-    <col min="3" max="16" width="8.140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.86328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" style="4" customWidth="1"/>
+    <col min="3" max="16" width="8.1328125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.86328125" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.73046875" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="4"/>
-    <col min="23" max="24" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="36" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="36" width="4.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.1328125" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="11.65" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="17"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="17"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>56</v>
+      </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:36" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="40.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="6" t="s">
@@ -869,11 +954,11 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
     </row>
-    <row r="6" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -944,11 +1029,11 @@
       <c r="AH6" s="14"/>
       <c r="AI6" s="14"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="11">
@@ -1006,11 +1091,11 @@
         <v>0.15909999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="8">
@@ -1068,11 +1153,11 @@
         <v>0.18060000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11">
@@ -1130,11 +1215,11 @@
         <v>0.1653</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8">
@@ -1194,11 +1279,11 @@
       <c r="Y10" s="18"/>
       <c r="AA10" s="18"/>
     </row>
-    <row r="11" spans="1:36" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="20.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="11">
@@ -1269,11 +1354,11 @@
       <c r="AH11" s="14"/>
       <c r="AI11" s="14"/>
     </row>
-    <row r="12" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="10.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="8">
@@ -1332,11 +1417,11 @@
       </c>
       <c r="AA12" s="19"/>
     </row>
-    <row r="13" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="11">
@@ -1394,11 +1479,11 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="8">
@@ -1456,11 +1541,11 @@
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="11">
@@ -1518,11 +1603,11 @@
         <v>0.12770000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="8">
@@ -1580,11 +1665,11 @@
         <v>4.6399999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="11">
@@ -1642,11 +1727,11 @@
         <v>4.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="8">
@@ -1704,11 +1789,11 @@
         <v>0.1757</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="11">
@@ -1766,7 +1851,7 @@
         <v>0.16520000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -1788,59 +1873,82 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
     </row>
-    <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:36" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="40.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" s="28" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="6" t="s">
@@ -1901,11 +2009,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -1966,1511 +2074,1511 @@
         <v>2</v>
       </c>
       <c r="W23" s="8">
-        <f>IFERROR(C6-C23,0)</f>
+        <f t="shared" ref="W23:W36" si="0">IFERROR(C6-C23,0)</f>
         <v>0</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" ref="X23:AJ23" si="0">IFERROR(D6-D23,0)</f>
+        <f t="shared" ref="X23:AJ23" si="1">IFERROR(D6-D23,0)</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Y23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="8">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AA23" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AB23" s="8">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="AC23" s="8">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AD23" s="8">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AE23" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="AF23" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AG23" s="8">
+        <f t="shared" si="1"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="AH23" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.26</v>
+      </c>
+      <c r="AI23" s="8">
+        <f t="shared" si="1"/>
+        <v>-6.9999999999999951E-2</v>
+      </c>
+      <c r="AJ23" s="8">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="J24" s="11">
+        <v>-0.37</v>
+      </c>
+      <c r="K24" s="11">
+        <v>-0.04</v>
+      </c>
+      <c r="L24" s="11">
+        <v>-0.46</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="O24" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="P24" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="R24" s="12">
+        <v>1.23E-2</v>
+      </c>
+      <c r="S24" s="12">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="T24" s="12">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="X24" s="8">
+        <f t="shared" ref="X24:X36" si="2">IFERROR(D7-D24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="8">
+        <f t="shared" ref="Y24:Y36" si="3">IFERROR(E7-E24,0)</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="Z24" s="8">
+        <f t="shared" ref="Z24:Z36" si="4">IFERROR(F7-F24,0)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AA24" s="8">
+        <f t="shared" ref="AA24:AA36" si="5">IFERROR(G7-G24,0)</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AB24" s="8">
+        <f t="shared" ref="AB24:AB36" si="6">IFERROR(H7-H24,0)</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="AC24" s="8">
+        <f t="shared" ref="AC24:AC36" si="7">IFERROR(I7-I24,0)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="AD24" s="8">
+        <f t="shared" ref="AD24:AD36" si="8">IFERROR(J7-J24,0)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE24" s="8">
+        <f t="shared" ref="AE24:AE36" si="9">IFERROR(K7-K24,0)</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" ref="AF24:AF36" si="10">IFERROR(L7-L24,0)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AG24" s="8">
+        <f t="shared" ref="AG24:AG36" si="11">IFERROR(M7-M24,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AH24" s="8">
+        <f t="shared" ref="AH24:AH36" si="12">IFERROR(N7-N24,0)</f>
+        <v>-0.25</v>
+      </c>
+      <c r="AI24" s="8">
+        <f t="shared" ref="AI24:AI36" si="13">IFERROR(O7-O24,0)</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="AJ24" s="8">
+        <f t="shared" ref="AJ24:AJ36" si="14">IFERROR(P7-P24,0)</f>
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="J25" s="8">
+        <v>-0.4</v>
+      </c>
+      <c r="K25" s="8">
+        <v>-0.08</v>
+      </c>
+      <c r="L25" s="8">
+        <v>-0.49</v>
+      </c>
+      <c r="M25" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P25" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.1308</v>
+      </c>
+      <c r="R25" s="9">
+        <v>1.34E-2</v>
+      </c>
+      <c r="S25" s="9">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="X25" s="8">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="Y25" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="8">
+        <f t="shared" si="4"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="AA25" s="8">
+        <f t="shared" si="5"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AB25" s="8">
+        <f t="shared" si="6"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="AC25" s="8">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AD25" s="8">
+        <f t="shared" si="8"/>
+        <v>0.11000000000000004</v>
+      </c>
+      <c r="AE25" s="8">
+        <f t="shared" si="9"/>
+        <v>-0.03</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" si="10"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AG25" s="8">
+        <f t="shared" si="11"/>
+        <v>0.13</v>
+      </c>
+      <c r="AH25" s="8">
+        <f t="shared" si="12"/>
+        <v>-0.21</v>
+      </c>
+      <c r="AI25" s="8">
+        <f t="shared" si="13"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="AJ25" s="8">
+        <f t="shared" si="14"/>
+        <v>-3.9999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="J26" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L26" s="11">
+        <v>-0.45</v>
+      </c>
+      <c r="M26" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="O26" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="P26" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="R26" s="12">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="S26" s="12">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="T26" s="12">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="8">
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AA23" s="8">
+      <c r="X26" s="8">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Y26" s="8">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="Z26" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="8">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AB26" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="8">
+        <f t="shared" si="7"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="AD26" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="8">
+        <f t="shared" si="9"/>
+        <v>-9.9999999999999992E-2</v>
+      </c>
+      <c r="AF26" s="8">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AG26" s="8">
+        <f t="shared" si="11"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AH26" s="8">
+        <f t="shared" si="12"/>
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="AI26" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="AJ26" s="8">
+        <f t="shared" si="14"/>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="J27" s="8">
+        <v>-0.27</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="L27" s="8">
+        <v>-0.45</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="P27" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="R27" s="9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S27" s="9">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0.1774</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W27" s="8">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AB23" s="8">
+      <c r="X27" s="8">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="Y27" s="8">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="Z27" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AA27" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="8">
+        <f t="shared" si="7"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="AD27" s="8">
+        <f t="shared" si="8"/>
+        <v>5.0000000000000017E-2</v>
+      </c>
+      <c r="AE27" s="8">
+        <f t="shared" si="9"/>
+        <v>-0.09</v>
+      </c>
+      <c r="AF27" s="8">
+        <f t="shared" si="10"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AG27" s="8">
+        <f t="shared" si="11"/>
+        <v>6.0000000000000012E-2</v>
+      </c>
+      <c r="AH27" s="8">
+        <f t="shared" si="12"/>
+        <v>-0.3</v>
+      </c>
+      <c r="AI27" s="8">
+        <f t="shared" si="13"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="AJ27" s="8">
+        <f t="shared" si="14"/>
+        <v>-9.0000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="20.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J28" s="11">
+        <v>-0.17</v>
+      </c>
+      <c r="K28" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L28" s="11">
+        <v>-0.38</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="O28" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="P28" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="R28" s="12">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="S28" s="12">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="T28" s="12">
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" s="8">
         <f t="shared" si="0"/>
         <v>6.9999999999999951E-2</v>
       </c>
-      <c r="AC23" s="8">
+      <c r="X28" s="8">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="Y28" s="8">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="Z28" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="8">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AD28" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.06</v>
+      </c>
+      <c r="AE28" s="8">
+        <f t="shared" si="9"/>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AF28" s="8">
+        <f t="shared" si="10"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="AG28" s="8">
+        <f t="shared" si="11"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="AH28" s="8">
+        <f t="shared" si="12"/>
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="AI28" s="8">
+        <f t="shared" si="13"/>
+        <v>-8.9999999999999969E-2</v>
+      </c>
+      <c r="AJ28" s="8">
+        <f t="shared" si="14"/>
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" ht="10.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="8">
+        <v>-0.06</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="L29" s="8">
+        <v>-0.03</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="P29" s="13">
+        <v>0.17</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="R29" s="9">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="S29" s="9">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0.1724</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W29" s="8">
         <f t="shared" si="0"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="AD23" s="8">
+      <c r="X29" s="8">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="Y29" s="8">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="Z29" s="8">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="AA29" s="8">
+        <f t="shared" si="5"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="AB29" s="8">
+        <f t="shared" si="6"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AC29" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="8">
+        <f t="shared" si="8"/>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+      <c r="AE29" s="8">
+        <f t="shared" si="9"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="AF29" s="8">
+        <f t="shared" si="10"/>
+        <v>-0.22</v>
+      </c>
+      <c r="AG29" s="8">
+        <f t="shared" si="11"/>
+        <v>-0.11999999999999997</v>
+      </c>
+      <c r="AH29" s="8">
+        <f t="shared" si="12"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AI29" s="8">
+        <f t="shared" si="13"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ29" s="8">
+        <f t="shared" si="14"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="11">
+        <v>-0.36</v>
+      </c>
+      <c r="D30" s="11">
+        <v>-0.37</v>
+      </c>
+      <c r="E30" s="11">
+        <v>-0.4</v>
+      </c>
+      <c r="F30" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="G30" s="11">
+        <v>-0.27</v>
+      </c>
+      <c r="H30" s="11">
+        <v>-0.17</v>
+      </c>
+      <c r="I30" s="11">
+        <v>-0.06</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="O30" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="P30" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R30" s="12">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="S30" s="12">
+        <v>2.8E-3</v>
+      </c>
+      <c r="T30" s="12">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="V30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W30" s="8">
         <f t="shared" si="0"/>
         <v>4.9999999999999989E-2</v>
       </c>
-      <c r="AE23" s="8">
+      <c r="X30" s="8">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y30" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11000000000000004</v>
+      </c>
+      <c r="Z30" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="8">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000017E-2</v>
+      </c>
+      <c r="AB30" s="8">
+        <f t="shared" si="6"/>
+        <v>-0.06</v>
+      </c>
+      <c r="AC30" s="8">
+        <f t="shared" si="7"/>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+      <c r="AD30" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="8">
+        <f t="shared" si="9"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="AF30" s="8">
+        <f t="shared" si="10"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="AG30" s="8">
+        <f t="shared" si="11"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AH30" s="8">
+        <f t="shared" si="12"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AI30" s="8">
+        <f t="shared" si="13"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="AJ30" s="8">
+        <f t="shared" si="14"/>
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="8">
+        <v>-0.06</v>
+      </c>
+      <c r="D31" s="8">
+        <v>-0.04</v>
+      </c>
+      <c r="E31" s="8">
+        <v>-0.08</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="H31" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="O31" s="8">
+        <v>-0.12</v>
+      </c>
+      <c r="P31" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="R31" s="9">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="S31" s="9">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="T31" s="9">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W31" s="8">
         <f t="shared" si="0"/>
         <v>-0.05</v>
       </c>
-      <c r="AF23" s="8">
+      <c r="X31" s="8">
+        <f t="shared" si="2"/>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="Y31" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.03</v>
+      </c>
+      <c r="Z31" s="8">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999999992E-2</v>
+      </c>
+      <c r="AA31" s="8">
+        <f t="shared" si="5"/>
+        <v>-0.09</v>
+      </c>
+      <c r="AB31" s="8">
+        <f t="shared" si="6"/>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AC31" s="8">
+        <f t="shared" si="7"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="AD31" s="8">
+        <f t="shared" si="8"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="AE31" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="8">
+        <f t="shared" si="10"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="AG31" s="8">
+        <f t="shared" si="11"/>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AH31" s="8">
+        <f t="shared" si="12"/>
+        <v>-0.1100000000000001</v>
+      </c>
+      <c r="AI31" s="8">
+        <f t="shared" si="13"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AJ31" s="8">
+        <f t="shared" si="14"/>
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="11">
+        <v>-0.48</v>
+      </c>
+      <c r="D32" s="11">
+        <v>-0.46</v>
+      </c>
+      <c r="E32" s="11">
+        <v>-0.49</v>
+      </c>
+      <c r="F32" s="11">
+        <v>-0.45</v>
+      </c>
+      <c r="G32" s="11">
+        <v>-0.45</v>
+      </c>
+      <c r="H32" s="11">
+        <v>-0.38</v>
+      </c>
+      <c r="I32" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="O32" s="11">
+        <v>-0.5</v>
+      </c>
+      <c r="P32" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="R32" s="12">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="S32" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T32" s="12">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="V32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="W32" s="8">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AG23" s="8">
+      <c r="X32" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="Y32" s="8">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="Z32" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AA32" s="8">
+        <f t="shared" si="5"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AB32" s="8">
+        <f t="shared" si="6"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="AC32" s="8">
+        <f t="shared" si="7"/>
+        <v>-0.22</v>
+      </c>
+      <c r="AD32" s="8">
+        <f t="shared" si="8"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="AE32" s="8">
+        <f t="shared" si="9"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="AF32" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="8">
+        <f t="shared" si="11"/>
+        <v>-0.24000000000000005</v>
+      </c>
+      <c r="AH32" s="8">
+        <f t="shared" si="12"/>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="AI32" s="8">
+        <f t="shared" si="13"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="AJ32" s="8">
+        <f t="shared" si="14"/>
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="8">
+        <v>-0.02</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E33" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="F33" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="O33" s="8">
+        <v>-0.05</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="R33" s="9">
+        <v>3.3E-3</v>
+      </c>
+      <c r="S33" s="9">
+        <v>1.34E-2</v>
+      </c>
+      <c r="T33" s="9">
+        <v>4.65E-2</v>
+      </c>
+      <c r="V33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W33" s="8">
         <f t="shared" si="0"/>
         <v>0.13999999999999999</v>
       </c>
-      <c r="AH23" s="8">
+      <c r="X33" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y33" s="8">
+        <f t="shared" si="3"/>
+        <v>0.13</v>
+      </c>
+      <c r="Z33" s="8">
+        <f t="shared" si="4"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AA33" s="8">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000012E-2</v>
+      </c>
+      <c r="AB33" s="8">
+        <f t="shared" si="6"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="AC33" s="8">
+        <f t="shared" si="7"/>
+        <v>-0.11999999999999997</v>
+      </c>
+      <c r="AD33" s="8">
+        <f t="shared" si="8"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE33" s="8">
+        <f t="shared" si="9"/>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AF33" s="8">
+        <f t="shared" si="10"/>
+        <v>-0.24000000000000005</v>
+      </c>
+      <c r="AG33" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="8">
+        <f t="shared" si="12"/>
+        <v>-0.22000000000000003</v>
+      </c>
+      <c r="AI33" s="8">
+        <f t="shared" si="13"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ33" s="8">
+        <f t="shared" si="14"/>
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.37</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="R34" s="12">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="S34" s="12">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="T34" s="12">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W34" s="8">
         <f t="shared" si="0"/>
         <v>-0.26</v>
       </c>
-      <c r="AI23" s="8">
+      <c r="X34" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.25</v>
+      </c>
+      <c r="Y34" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.21</v>
+      </c>
+      <c r="Z34" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="AA34" s="8">
+        <f t="shared" si="5"/>
+        <v>-0.3</v>
+      </c>
+      <c r="AB34" s="8">
+        <f t="shared" si="6"/>
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="AC34" s="8">
+        <f t="shared" si="7"/>
+        <v>-0.39</v>
+      </c>
+      <c r="AD34" s="8">
+        <f t="shared" si="8"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AE34" s="8">
+        <f t="shared" si="9"/>
+        <v>-0.1100000000000001</v>
+      </c>
+      <c r="AF34" s="8">
+        <f t="shared" si="10"/>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="AG34" s="8">
+        <f t="shared" si="11"/>
+        <v>-0.22000000000000003</v>
+      </c>
+      <c r="AH34" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.08</v>
+      </c>
+      <c r="AJ34" s="8">
+        <f t="shared" si="14"/>
+        <v>-0.23000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="J35" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="K35" s="8">
+        <v>-0.12</v>
+      </c>
+      <c r="L35" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="M35" s="8">
+        <v>-0.05</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>-0.04</v>
+      </c>
+      <c r="R35" s="9">
+        <v>1.06E-2</v>
+      </c>
+      <c r="S35" s="9">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0.17630000000000001</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W35" s="8">
         <f t="shared" si="0"/>
         <v>-6.9999999999999951E-2</v>
       </c>
-      <c r="AJ23" s="8">
-        <f t="shared" si="0"/>
-        <v>-6.0000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0.97</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="F24" s="11">
-        <v>0.84</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0.74</v>
-      </c>
-      <c r="J24" s="11">
-        <v>-0.37</v>
-      </c>
-      <c r="K24" s="11">
-        <v>-0.04</v>
-      </c>
-      <c r="L24" s="11">
-        <v>-0.46</v>
-      </c>
-      <c r="M24" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="N24" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="O24" s="11">
-        <v>0.54</v>
-      </c>
-      <c r="P24" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="Q24" s="12">
-        <v>0.13880000000000001</v>
-      </c>
-      <c r="R24" s="12">
-        <v>1.23E-2</v>
-      </c>
-      <c r="S24" s="12">
-        <v>4.6100000000000002E-2</v>
-      </c>
-      <c r="T24" s="12">
-        <v>0.15959999999999999</v>
-      </c>
-      <c r="V24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="W24" s="8">
-        <f>IFERROR(C7-C24,0)</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="X24" s="8">
-        <f>IFERROR(D7-D24,0)</f>
+      <c r="X35" s="8">
+        <f t="shared" si="2"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="Y35" s="8">
+        <f t="shared" si="3"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="Z35" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="AA35" s="8">
+        <f t="shared" si="5"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="AB35" s="8">
+        <f t="shared" si="6"/>
+        <v>-8.9999999999999969E-2</v>
+      </c>
+      <c r="AC35" s="8">
+        <f t="shared" si="7"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD35" s="8">
+        <f t="shared" si="8"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="AE35" s="8">
+        <f t="shared" si="9"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AF35" s="8">
+        <f t="shared" si="10"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="AG35" s="8">
+        <f t="shared" si="11"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH35" s="8">
+        <f t="shared" si="12"/>
+        <v>-0.08</v>
+      </c>
+      <c r="AI35" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="8">
-        <f>IFERROR(E7-E24,0)</f>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="Z24" s="8">
-        <f>IFERROR(F7-F24,0)</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AA24" s="8">
-        <f>IFERROR(G7-G24,0)</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AB24" s="8">
-        <f>IFERROR(H7-H24,0)</f>
-        <v>6.9999999999999951E-2</v>
-      </c>
-      <c r="AC24" s="8">
-        <f>IFERROR(I7-I24,0)</f>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="AD24" s="8">
-        <f>IFERROR(J7-J24,0)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AE24" s="8">
-        <f>IFERROR(K7-K24,0)</f>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="AF24" s="8">
-        <f>IFERROR(L7-L24,0)</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AG24" s="8">
-        <f>IFERROR(M7-M24,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="AH24" s="8">
-        <f>IFERROR(N7-N24,0)</f>
-        <v>-0.25</v>
-      </c>
-      <c r="AI24" s="8">
-        <f>IFERROR(O7-O24,0)</f>
-        <v>-3.0000000000000027E-2</v>
-      </c>
-      <c r="AJ24" s="8">
-        <f>IFERROR(P7-P24,0)</f>
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0.96</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0.81</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.83</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0.73</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0.71</v>
-      </c>
-      <c r="J25" s="8">
-        <v>-0.4</v>
-      </c>
-      <c r="K25" s="8">
-        <v>-0.08</v>
-      </c>
-      <c r="L25" s="8">
-        <v>-0.49</v>
-      </c>
-      <c r="M25" s="8">
-        <v>-0.01</v>
-      </c>
-      <c r="N25" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="O25" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="P25" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0.1308</v>
-      </c>
-      <c r="R25" s="9">
-        <v>1.34E-2</v>
-      </c>
-      <c r="S25" s="9">
-        <v>5.2299999999999999E-2</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0.18110000000000001</v>
-      </c>
-      <c r="V25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="W25" s="8">
-        <f>IFERROR(C8-C25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X25" s="8">
-        <f>IFERROR(D8-D25,0)</f>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="Y25" s="8">
-        <f>IFERROR(E8-E25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="8">
-        <f>IFERROR(F8-F25,0)</f>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="AA25" s="8">
-        <f>IFERROR(G8-G25,0)</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AB25" s="8">
-        <f>IFERROR(H8-H25,0)</f>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="AC25" s="8">
-        <f>IFERROR(I8-I25,0)</f>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="AD25" s="8">
-        <f>IFERROR(J8-J25,0)</f>
-        <v>0.11000000000000004</v>
-      </c>
-      <c r="AE25" s="8">
-        <f>IFERROR(K8-K25,0)</f>
-        <v>-0.03</v>
-      </c>
-      <c r="AF25" s="8">
-        <f>IFERROR(L8-L25,0)</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="AG25" s="8">
-        <f>IFERROR(M8-M25,0)</f>
-        <v>0.13</v>
-      </c>
-      <c r="AH25" s="8">
-        <f>IFERROR(N8-N25,0)</f>
-        <v>-0.21</v>
-      </c>
-      <c r="AI25" s="8">
-        <f>IFERROR(O8-O25,0)</f>
-        <v>-6.0000000000000053E-2</v>
-      </c>
-      <c r="AJ25" s="8">
-        <f>IFERROR(P8-P25,0)</f>
-        <v>-3.9999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="11">
-        <v>0.86</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0.84</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0.81</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0.93</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0.63</v>
-      </c>
-      <c r="J26" s="11">
-        <v>-0.25</v>
-      </c>
-      <c r="K26" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="L26" s="11">
-        <v>-0.45</v>
-      </c>
-      <c r="M26" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N26" s="11">
-        <v>0.18</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="P26" s="11">
-        <v>0.22</v>
-      </c>
-      <c r="Q26" s="12">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="R26" s="12">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="S26" s="12">
-        <v>4.7800000000000002E-2</v>
-      </c>
-      <c r="T26" s="12">
-        <v>0.16569999999999999</v>
-      </c>
-      <c r="V26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="W26" s="8">
-        <f>IFERROR(C9-C26,0)</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="X26" s="8">
-        <f>IFERROR(D9-D26,0)</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="Y26" s="8">
-        <f>IFERROR(E9-E26,0)</f>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="Z26" s="8">
-        <f>IFERROR(F9-F26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="8">
-        <f>IFERROR(G9-G26,0)</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AB26" s="8">
-        <f>IFERROR(H9-H26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="8">
-        <f>IFERROR(I9-I26,0)</f>
-        <v>8.9999999999999969E-2</v>
-      </c>
-      <c r="AD26" s="8">
-        <f>IFERROR(J9-J26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="8">
-        <f>IFERROR(K9-K26,0)</f>
-        <v>-9.9999999999999992E-2</v>
-      </c>
-      <c r="AF26" s="8">
-        <f>IFERROR(L9-L26,0)</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AG26" s="8">
-        <f>IFERROR(M9-M26,0)</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="AH26" s="8">
-        <f>IFERROR(N9-N26,0)</f>
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="AI26" s="8">
-        <f>IFERROR(O9-O26,0)</f>
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="AJ26" s="8">
-        <f>IFERROR(P9-P26,0)</f>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0.86</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0.83</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0.96</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0.91</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0.63</v>
-      </c>
-      <c r="J27" s="8">
-        <v>-0.27</v>
-      </c>
-      <c r="K27" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="L27" s="8">
-        <v>-0.45</v>
-      </c>
-      <c r="M27" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="N27" s="8">
-        <v>0.22</v>
-      </c>
-      <c r="O27" s="8">
-        <v>0.69</v>
-      </c>
-      <c r="P27" s="8">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="R27" s="9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="S27" s="9">
-        <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="T27" s="9">
-        <v>0.1774</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="W27" s="8">
-        <f>IFERROR(C10-C27,0)</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="X27" s="8">
-        <f>IFERROR(D10-D27,0)</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="Y27" s="8">
-        <f>IFERROR(E10-E27,0)</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="Z27" s="8">
-        <f>IFERROR(F10-F27,0)</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AA27" s="8">
-        <f>IFERROR(G10-G27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="8">
-        <f>IFERROR(H10-H27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="8">
-        <f>IFERROR(I10-I27,0)</f>
-        <v>7.999999999999996E-2</v>
-      </c>
-      <c r="AD27" s="8">
-        <f>IFERROR(J10-J27,0)</f>
-        <v>5.0000000000000017E-2</v>
-      </c>
-      <c r="AE27" s="8">
-        <f>IFERROR(K10-K27,0)</f>
-        <v>-0.09</v>
-      </c>
-      <c r="AF27" s="8">
-        <f>IFERROR(L10-L27,0)</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="AG27" s="8">
-        <f>IFERROR(M10-M27,0)</f>
-        <v>6.0000000000000012E-2</v>
-      </c>
-      <c r="AH27" s="8">
-        <f>IFERROR(N10-N27,0)</f>
-        <v>-0.3</v>
-      </c>
-      <c r="AI27" s="8">
-        <f>IFERROR(O10-O27,0)</f>
-        <v>-9.9999999999999978E-2</v>
-      </c>
-      <c r="AJ27" s="8">
-        <f>IFERROR(P10-P27,0)</f>
-        <v>-9.0000000000000024E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="11">
-        <v>0.76</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0.73</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0.93</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0.91</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J28" s="11">
-        <v>-0.17</v>
-      </c>
-      <c r="K28" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L28" s="11">
-        <v>-0.38</v>
-      </c>
-      <c r="M28" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="N28" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="O28" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="P28" s="11">
-        <v>0.32</v>
-      </c>
-      <c r="Q28" s="12">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="R28" s="12">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="S28" s="12">
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="T28" s="12">
-        <v>0.19520000000000001</v>
-      </c>
-      <c r="V28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W28" s="8">
-        <f>IFERROR(C11-C28,0)</f>
-        <v>6.9999999999999951E-2</v>
-      </c>
-      <c r="X28" s="8">
-        <f>IFERROR(D11-D28,0)</f>
-        <v>6.9999999999999951E-2</v>
-      </c>
-      <c r="Y28" s="8">
-        <f>IFERROR(E11-E28,0)</f>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="Z28" s="8">
-        <f>IFERROR(F11-F28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="8">
-        <f>IFERROR(G11-G28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="8">
-        <f>IFERROR(H11-H28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="8">
-        <f>IFERROR(I11-I28,0)</f>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="AD28" s="8">
-        <f>IFERROR(J11-J28,0)</f>
-        <v>-0.06</v>
-      </c>
-      <c r="AE28" s="8">
-        <f>IFERROR(K11-K28,0)</f>
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="AF28" s="8">
-        <f>IFERROR(L11-L28,0)</f>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="AG28" s="8">
-        <f>IFERROR(M11-M28,0)</f>
-        <v>3.9999999999999994E-2</v>
-      </c>
-      <c r="AH28" s="8">
-        <f>IFERROR(N11-N28,0)</f>
-        <v>-0.35000000000000003</v>
-      </c>
-      <c r="AI28" s="8">
-        <f>IFERROR(O11-O28,0)</f>
-        <v>-8.9999999999999969E-2</v>
-      </c>
-      <c r="AJ28" s="8">
-        <f>IFERROR(P11-P28,0)</f>
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.74</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0.71</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0.63</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0.63</v>
-      </c>
-      <c r="H29" s="8">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="8">
-        <v>-0.06</v>
-      </c>
-      <c r="K29" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="L29" s="8">
-        <v>-0.03</v>
-      </c>
-      <c r="M29" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="N29" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="O29" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="P29" s="13">
-        <v>0.17</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>0.12970000000000001</v>
-      </c>
-      <c r="R29" s="9">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="S29" s="9">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="T29" s="9">
-        <v>0.1724</v>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="W29" s="8">
-        <f>IFERROR(C12-C29,0)</f>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="X29" s="8">
-        <f>IFERROR(D12-D29,0)</f>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="Y29" s="8">
-        <f>IFERROR(E12-E29,0)</f>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="Z29" s="8">
-        <f>IFERROR(F12-F29,0)</f>
-        <v>8.9999999999999969E-2</v>
-      </c>
-      <c r="AA29" s="8">
-        <f>IFERROR(G12-G29,0)</f>
-        <v>7.999999999999996E-2</v>
-      </c>
-      <c r="AB29" s="8">
-        <f>IFERROR(H12-H29,0)</f>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="AC29" s="8">
-        <f>IFERROR(I12-I29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="8">
-        <f>IFERROR(J12-J29,0)</f>
-        <v>-8.0000000000000016E-2</v>
-      </c>
-      <c r="AE29" s="8">
-        <f>IFERROR(K12-K29,0)</f>
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="AF29" s="8">
-        <f>IFERROR(L12-L29,0)</f>
-        <v>-0.22</v>
-      </c>
-      <c r="AG29" s="8">
-        <f>IFERROR(M12-M29,0)</f>
-        <v>-0.11999999999999997</v>
-      </c>
-      <c r="AH29" s="8">
-        <f>IFERROR(N12-N29,0)</f>
-        <v>-0.39</v>
-      </c>
-      <c r="AI29" s="8">
-        <f>IFERROR(O12-O29,0)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AJ29" s="8">
-        <f>IFERROR(P12-P29,0)</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="11">
-        <v>-0.36</v>
-      </c>
-      <c r="D30" s="11">
-        <v>-0.37</v>
-      </c>
-      <c r="E30" s="11">
-        <v>-0.4</v>
-      </c>
-      <c r="F30" s="11">
-        <v>-0.25</v>
-      </c>
-      <c r="G30" s="11">
-        <v>-0.27</v>
-      </c>
-      <c r="H30" s="11">
-        <v>-0.17</v>
-      </c>
-      <c r="I30" s="11">
-        <v>-0.06</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0.62</v>
-      </c>
-      <c r="M30" s="11">
-        <v>0.32</v>
-      </c>
-      <c r="N30" s="11">
-        <v>0.52</v>
-      </c>
-      <c r="O30" s="11">
-        <v>-0.25</v>
-      </c>
-      <c r="P30" s="11">
-        <v>0.39</v>
-      </c>
-      <c r="Q30" s="12">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="R30" s="12">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="S30" s="12">
-        <v>2.8E-3</v>
-      </c>
-      <c r="T30" s="12">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="V30" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="W30" s="8">
-        <f>IFERROR(C13-C30,0)</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="X30" s="8">
-        <f>IFERROR(D13-D30,0)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Y30" s="8">
-        <f>IFERROR(E13-E30,0)</f>
-        <v>0.11000000000000004</v>
-      </c>
-      <c r="Z30" s="8">
-        <f>IFERROR(F13-F30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="8">
-        <f>IFERROR(G13-G30,0)</f>
-        <v>5.0000000000000017E-2</v>
-      </c>
-      <c r="AB30" s="8">
-        <f>IFERROR(H13-H30,0)</f>
-        <v>-0.06</v>
-      </c>
-      <c r="AC30" s="8">
-        <f>IFERROR(I13-I30,0)</f>
-        <v>-8.0000000000000016E-2</v>
-      </c>
-      <c r="AD30" s="8">
-        <f>IFERROR(J13-J30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="8">
-        <f>IFERROR(K13-K30,0)</f>
-        <v>-6.0000000000000053E-2</v>
-      </c>
-      <c r="AF30" s="8">
-        <f>IFERROR(L13-L30,0)</f>
-        <v>-3.0000000000000027E-2</v>
-      </c>
-      <c r="AG30" s="8">
-        <f>IFERROR(M13-M30,0)</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="AH30" s="8">
-        <f>IFERROR(N13-N30,0)</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AI30" s="8">
-        <f>IFERROR(O13-O30,0)</f>
-        <v>7.9999999999999988E-2</v>
-      </c>
-      <c r="AJ30" s="8">
-        <f>IFERROR(P13-P30,0)</f>
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="8">
-        <v>-0.06</v>
-      </c>
-      <c r="D31" s="8">
-        <v>-0.04</v>
-      </c>
-      <c r="E31" s="8">
-        <v>-0.08</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="H31" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="J31" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="8">
-        <v>0.77</v>
-      </c>
-      <c r="M31" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="N31" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="O31" s="8">
-        <v>-0.12</v>
-      </c>
-      <c r="P31" s="8">
-        <v>0.44</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="R31" s="9">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="S31" s="9">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="T31" s="9">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="V31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="W31" s="8">
-        <f>IFERROR(C14-C31,0)</f>
-        <v>-0.05</v>
-      </c>
-      <c r="X31" s="8">
-        <f>IFERROR(D14-D31,0)</f>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="Y31" s="8">
-        <f>IFERROR(E14-E31,0)</f>
-        <v>-0.03</v>
-      </c>
-      <c r="Z31" s="8">
-        <f>IFERROR(F14-F31,0)</f>
-        <v>-9.9999999999999992E-2</v>
-      </c>
-      <c r="AA31" s="8">
-        <f>IFERROR(G14-G31,0)</f>
-        <v>-0.09</v>
-      </c>
-      <c r="AB31" s="8">
-        <f>IFERROR(H14-H31,0)</f>
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="AC31" s="8">
-        <f>IFERROR(I14-I31,0)</f>
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="AD31" s="8">
-        <f>IFERROR(J14-J31,0)</f>
-        <v>-6.0000000000000053E-2</v>
-      </c>
-      <c r="AE31" s="8">
-        <f>IFERROR(K14-K31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="8">
-        <f>IFERROR(L14-L31,0)</f>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="AG31" s="8">
-        <f>IFERROR(M14-M31,0)</f>
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="AH31" s="8">
-        <f>IFERROR(N14-N31,0)</f>
-        <v>-0.1100000000000001</v>
-      </c>
-      <c r="AI31" s="8">
-        <f>IFERROR(O14-O31,0)</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="AJ31" s="8">
-        <f>IFERROR(P14-P31,0)</f>
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="11">
-        <v>-0.48</v>
-      </c>
-      <c r="D32" s="11">
-        <v>-0.46</v>
-      </c>
-      <c r="E32" s="11">
-        <v>-0.49</v>
-      </c>
-      <c r="F32" s="11">
-        <v>-0.45</v>
-      </c>
-      <c r="G32" s="11">
-        <v>-0.45</v>
-      </c>
-      <c r="H32" s="11">
-        <v>-0.38</v>
-      </c>
-      <c r="I32" s="11">
-        <v>-0.03</v>
-      </c>
-      <c r="J32" s="11">
-        <v>0.62</v>
-      </c>
-      <c r="K32" s="11">
-        <v>0.77</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="11">
-        <v>0.54</v>
-      </c>
-      <c r="N32" s="11">
-        <v>0.54</v>
-      </c>
-      <c r="O32" s="11">
-        <v>-0.5</v>
-      </c>
-      <c r="P32" s="11">
-        <v>0.22</v>
-      </c>
-      <c r="Q32" s="12">
-        <v>7.8100000000000003E-2</v>
-      </c>
-      <c r="R32" s="12">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="S32" s="12">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="T32" s="12">
-        <v>0.12820000000000001</v>
-      </c>
-      <c r="V32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="W32" s="8">
-        <f>IFERROR(C15-C32,0)</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="X32" s="8">
-        <f>IFERROR(D15-D32,0)</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="Y32" s="8">
-        <f>IFERROR(E15-E32,0)</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="Z32" s="8">
-        <f>IFERROR(F15-F32,0)</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AA32" s="8">
-        <f>IFERROR(G15-G32,0)</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="AB32" s="8">
-        <f>IFERROR(H15-H32,0)</f>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="AC32" s="8">
-        <f>IFERROR(I15-I32,0)</f>
-        <v>-0.22</v>
-      </c>
-      <c r="AD32" s="8">
-        <f>IFERROR(J15-J32,0)</f>
-        <v>-3.0000000000000027E-2</v>
-      </c>
-      <c r="AE32" s="8">
-        <f>IFERROR(K15-K32,0)</f>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="AF32" s="8">
-        <f>IFERROR(L15-L32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="8">
-        <f>IFERROR(M15-M32,0)</f>
-        <v>-0.24000000000000005</v>
-      </c>
-      <c r="AH32" s="8">
-        <f>IFERROR(N15-N32,0)</f>
-        <v>0.18999999999999995</v>
-      </c>
-      <c r="AI32" s="8">
-        <f>IFERROR(O15-O32,0)</f>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="AJ32" s="8">
-        <f>IFERROR(P15-P32,0)</f>
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="8">
-        <v>-0.02</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="E33" s="8">
-        <v>-0.01</v>
-      </c>
-      <c r="F33" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0.32</v>
-      </c>
-      <c r="K33" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0.54</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="8">
-        <v>0.54</v>
-      </c>
-      <c r="O33" s="8">
-        <v>-0.05</v>
-      </c>
-      <c r="P33" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="R33" s="9">
-        <v>3.3E-3</v>
-      </c>
-      <c r="S33" s="9">
-        <v>1.34E-2</v>
-      </c>
-      <c r="T33" s="9">
-        <v>4.65E-2</v>
-      </c>
-      <c r="V33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W33" s="8">
-        <f>IFERROR(C16-C33,0)</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="X33" s="8">
-        <f>IFERROR(D16-D33,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="Y33" s="8">
-        <f>IFERROR(E16-E33,0)</f>
-        <v>0.13</v>
-      </c>
-      <c r="Z33" s="8">
-        <f>IFERROR(F16-F33,0)</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="AA33" s="8">
-        <f>IFERROR(G16-G33,0)</f>
-        <v>6.0000000000000012E-2</v>
-      </c>
-      <c r="AB33" s="8">
-        <f>IFERROR(H16-H33,0)</f>
-        <v>3.9999999999999994E-2</v>
-      </c>
-      <c r="AC33" s="8">
-        <f>IFERROR(I16-I33,0)</f>
-        <v>-0.11999999999999997</v>
-      </c>
-      <c r="AD33" s="8">
-        <f>IFERROR(J16-J33,0)</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="AE33" s="8">
-        <f>IFERROR(K16-K33,0)</f>
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="AF33" s="8">
-        <f>IFERROR(L16-L33,0)</f>
-        <v>-0.24000000000000005</v>
-      </c>
-      <c r="AG33" s="8">
-        <f>IFERROR(M16-M33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="8">
-        <f>IFERROR(N16-N33,0)</f>
-        <v>-0.22000000000000003</v>
-      </c>
-      <c r="AI33" s="8">
-        <f>IFERROR(O16-O33,0)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AJ33" s="8">
-        <f>IFERROR(P16-P33,0)</f>
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="D34" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0.18</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0.22</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0.37</v>
-      </c>
-      <c r="J34" s="11">
-        <v>0.52</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0.54</v>
-      </c>
-      <c r="M34" s="11">
-        <v>0.54</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O34" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="P34" s="11">
-        <v>0.54</v>
-      </c>
-      <c r="Q34" s="12">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="R34" s="12">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="S34" s="12">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="T34" s="12">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="V34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="W34" s="8">
-        <f>IFERROR(C17-C34,0)</f>
-        <v>-0.26</v>
-      </c>
-      <c r="X34" s="8">
-        <f>IFERROR(D17-D34,0)</f>
-        <v>-0.25</v>
-      </c>
-      <c r="Y34" s="8">
-        <f>IFERROR(E17-E34,0)</f>
-        <v>-0.21</v>
-      </c>
-      <c r="Z34" s="8">
-        <f>IFERROR(F17-F34,0)</f>
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="AA34" s="8">
-        <f>IFERROR(G17-G34,0)</f>
-        <v>-0.3</v>
-      </c>
-      <c r="AB34" s="8">
-        <f>IFERROR(H17-H34,0)</f>
-        <v>-0.35000000000000003</v>
-      </c>
-      <c r="AC34" s="8">
-        <f>IFERROR(I17-I34,0)</f>
-        <v>-0.39</v>
-      </c>
-      <c r="AD34" s="8">
-        <f>IFERROR(J17-J34,0)</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AE34" s="8">
-        <f>IFERROR(K17-K34,0)</f>
-        <v>-0.1100000000000001</v>
-      </c>
-      <c r="AF34" s="8">
-        <f>IFERROR(L17-L34,0)</f>
-        <v>0.18999999999999995</v>
-      </c>
-      <c r="AG34" s="8">
-        <f>IFERROR(M17-M34,0)</f>
-        <v>-0.22000000000000003</v>
-      </c>
-      <c r="AH34" s="8">
-        <f>IFERROR(N17-N34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI34" s="8">
-        <f>IFERROR(O17-O34,0)</f>
-        <v>-0.08</v>
-      </c>
-      <c r="AJ34" s="8">
-        <f>IFERROR(P17-P34,0)</f>
-        <v>-0.23000000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0.54</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0.69</v>
-      </c>
-      <c r="H35" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="J35" s="8">
-        <v>-0.25</v>
-      </c>
-      <c r="K35" s="8">
-        <v>-0.12</v>
-      </c>
-      <c r="L35" s="8">
-        <v>-0.5</v>
-      </c>
-      <c r="M35" s="8">
-        <v>-0.05</v>
-      </c>
-      <c r="N35" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>-0.04</v>
-      </c>
-      <c r="R35" s="9">
-        <v>1.06E-2</v>
-      </c>
-      <c r="S35" s="9">
-        <v>5.0900000000000001E-2</v>
-      </c>
-      <c r="T35" s="9">
-        <v>0.17630000000000001</v>
-      </c>
-      <c r="V35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="W35" s="8">
-        <f>IFERROR(C18-C35,0)</f>
-        <v>-6.9999999999999951E-2</v>
-      </c>
-      <c r="X35" s="8">
-        <f>IFERROR(D18-D35,0)</f>
-        <v>-3.0000000000000027E-2</v>
-      </c>
-      <c r="Y35" s="8">
-        <f>IFERROR(E18-E35,0)</f>
-        <v>-6.0000000000000053E-2</v>
-      </c>
-      <c r="Z35" s="8">
-        <f>IFERROR(F18-F35,0)</f>
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="AA35" s="8">
-        <f>IFERROR(G18-G35,0)</f>
-        <v>-9.9999999999999978E-2</v>
-      </c>
-      <c r="AB35" s="8">
-        <f>IFERROR(H18-H35,0)</f>
-        <v>-8.9999999999999969E-2</v>
-      </c>
-      <c r="AC35" s="8">
-        <f>IFERROR(I18-I35,0)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AD35" s="8">
-        <f>IFERROR(J18-J35,0)</f>
-        <v>7.9999999999999988E-2</v>
-      </c>
-      <c r="AE35" s="8">
-        <f>IFERROR(K18-K35,0)</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="AF35" s="8">
-        <f>IFERROR(L18-L35,0)</f>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="AG35" s="8">
-        <f>IFERROR(M18-M35,0)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AH35" s="8">
-        <f>IFERROR(N18-N35,0)</f>
-        <v>-0.08</v>
-      </c>
-      <c r="AI35" s="8">
-        <f>IFERROR(O18-O35,0)</f>
-        <v>0</v>
-      </c>
       <c r="AJ35" s="8">
-        <f>IFERROR(P18-P35,0)</f>
+        <f t="shared" si="14"/>
         <v>-2.9999999999999971E-2</v>
       </c>
       <c r="AK35" s="8">
@@ -3478,11 +3586,11 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="11">
@@ -3543,59 +3651,59 @@
         <v>15</v>
       </c>
       <c r="W36" s="8">
-        <f>IFERROR(C19-C36,0)</f>
+        <f t="shared" si="0"/>
         <v>-6.0000000000000005E-2</v>
       </c>
       <c r="X36" s="8">
-        <f>IFERROR(D19-D36,0)</f>
+        <f t="shared" si="2"/>
         <v>-0.06</v>
       </c>
       <c r="Y36" s="8">
-        <f>IFERROR(E19-E36,0)</f>
+        <f t="shared" si="3"/>
         <v>-3.9999999999999994E-2</v>
       </c>
       <c r="Z36" s="8">
-        <f>IFERROR(F19-F36,0)</f>
+        <f t="shared" si="4"/>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="AA36" s="8">
-        <f>IFERROR(G19-G36,0)</f>
+        <f t="shared" si="5"/>
         <v>-9.0000000000000024E-2</v>
       </c>
       <c r="AB36" s="8">
-        <f>IFERROR(H19-H36,0)</f>
+        <f t="shared" si="6"/>
         <v>-0.16</v>
       </c>
       <c r="AC36" s="8">
-        <f>IFERROR(I19-I36,0)</f>
+        <f t="shared" si="7"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AD36" s="8">
-        <f>IFERROR(J19-J36,0)</f>
+        <f t="shared" si="8"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="AE36" s="8">
-        <f>IFERROR(K19-K36,0)</f>
+        <f t="shared" si="9"/>
         <v>-0.18</v>
       </c>
       <c r="AF36" s="8">
-        <f>IFERROR(L19-L36,0)</f>
+        <f t="shared" si="10"/>
         <v>-0.03</v>
       </c>
       <c r="AG36" s="8">
-        <f>IFERROR(M19-M36,0)</f>
+        <f t="shared" si="11"/>
         <v>-0.09</v>
       </c>
       <c r="AH36" s="8">
-        <f>IFERROR(N19-N36,0)</f>
+        <f t="shared" si="12"/>
         <v>-0.23000000000000004</v>
       </c>
       <c r="AI36" s="8">
-        <f>IFERROR(O19-O36,0)</f>
+        <f t="shared" si="13"/>
         <v>-2.9999999999999971E-2</v>
       </c>
       <c r="AJ36" s="8">
-        <f>IFERROR(P19-P36,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK36" s="8">
@@ -3603,28 +3711,38 @@
         <v>0.21999999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
+      <c r="C39" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="P39" s="33" t="s">
+        <v>56</v>
+      </c>
       <c r="Q39" s="17"/>
       <c r="R39" s="17"/>
       <c r="S39" s="17"/>
@@ -3645,53 +3763,53 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
     </row>
-    <row r="40" spans="1:37" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="40.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M40" s="6" t="s">
+      <c r="M40" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N40" s="6" t="s">
+      <c r="N40" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O40" s="6" t="s">
+      <c r="O40" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P40" s="6" t="s">
+      <c r="P40" s="28" t="s">
         <v>15</v>
       </c>
       <c r="Q40" s="6" t="s">
@@ -3752,11 +3870,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -3821,63 +3939,63 @@
         <v>0</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" ref="X41:AJ41" si="1">IFERROR(D23-D41,0)</f>
+        <f t="shared" ref="X41:AJ41" si="15">IFERROR(D23-D41,0)</f>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.12</v>
       </c>
       <c r="AC41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-0.49</v>
       </c>
       <c r="AE41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-0.15</v>
       </c>
       <c r="AF41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-0.26</v>
       </c>
       <c r="AG41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.24000000000000002</v>
       </c>
       <c r="AH41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="AI41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.13999999999999996</v>
       </c>
       <c r="AJ41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="11">
@@ -3938,67 +4056,67 @@
         <v>3</v>
       </c>
       <c r="W42" s="8">
-        <f t="shared" ref="W42:W54" si="2">IFERROR(C24-C42,0)</f>
+        <f t="shared" ref="W42:W54" si="16">IFERROR(C24-C42,0)</f>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="X42" s="8">
-        <f t="shared" ref="X42:X54" si="3">IFERROR(D24-D42,0)</f>
+        <f t="shared" ref="X42:X54" si="17">IFERROR(D24-D42,0)</f>
         <v>0</v>
       </c>
       <c r="Y42" s="8">
-        <f t="shared" ref="Y42:Y54" si="4">IFERROR(E24-E42,0)</f>
+        <f t="shared" ref="Y42:Y54" si="18">IFERROR(E24-E42,0)</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Z42" s="8">
-        <f t="shared" ref="Z42:Z54" si="5">IFERROR(F24-F42,0)</f>
+        <f t="shared" ref="Z42:Z54" si="19">IFERROR(F24-F42,0)</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AA42" s="8">
-        <f t="shared" ref="AA42:AA54" si="6">IFERROR(G24-G42,0)</f>
+        <f t="shared" ref="AA42:AA54" si="20">IFERROR(G24-G42,0)</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AB42" s="8">
-        <f t="shared" ref="AB42:AB54" si="7">IFERROR(H24-H42,0)</f>
+        <f t="shared" ref="AB42:AB54" si="21">IFERROR(H24-H42,0)</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AC42" s="8">
-        <f t="shared" ref="AC42:AC54" si="8">IFERROR(I24-I42,0)</f>
+        <f t="shared" ref="AC42:AC54" si="22">IFERROR(I24-I42,0)</f>
         <v>0.22999999999999998</v>
       </c>
       <c r="AD42" s="8">
-        <f t="shared" ref="AD42:AD54" si="9">IFERROR(J24-J42,0)</f>
+        <f t="shared" ref="AD42:AD54" si="23">IFERROR(J24-J42,0)</f>
         <v>-0.55000000000000004</v>
       </c>
       <c r="AE42" s="8">
-        <f t="shared" ref="AE42:AE54" si="10">IFERROR(K24-K42,0)</f>
+        <f t="shared" ref="AE42:AE54" si="24">IFERROR(K24-K42,0)</f>
         <v>-0.18000000000000002</v>
       </c>
       <c r="AF42" s="8">
-        <f t="shared" ref="AF42:AF54" si="11">IFERROR(L24-L42,0)</f>
+        <f t="shared" ref="AF42:AF54" si="25">IFERROR(L24-L42,0)</f>
         <v>-0.26</v>
       </c>
       <c r="AG42" s="8">
-        <f t="shared" ref="AG42:AG54" si="12">IFERROR(M24-M42,0)</f>
+        <f t="shared" ref="AG42:AG54" si="26">IFERROR(M24-M42,0)</f>
         <v>0.31999999999999995</v>
       </c>
       <c r="AH42" s="8">
-        <f t="shared" ref="AH42:AH54" si="13">IFERROR(N24-N42,0)</f>
+        <f t="shared" ref="AH42:AH54" si="27">IFERROR(N24-N42,0)</f>
         <v>0.22</v>
       </c>
       <c r="AI42" s="8">
-        <f t="shared" ref="AI42:AI54" si="14">IFERROR(O24-O42,0)</f>
+        <f t="shared" ref="AI42:AI54" si="28">IFERROR(O24-O42,0)</f>
         <v>0.12000000000000005</v>
       </c>
       <c r="AJ42" s="8">
-        <f t="shared" ref="AJ42:AJ54" si="15">IFERROR(P24-P42,0)</f>
+        <f t="shared" ref="AJ42:AJ54" si="29">IFERROR(P24-P42,0)</f>
         <v>0.03</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="8">
@@ -4059,67 +4177,67 @@
         <v>4</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>2.9999999999999916E-2</v>
       </c>
       <c r="AB43" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AC43" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="AD43" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>-0.55000000000000004</v>
       </c>
       <c r="AE43" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-0.12</v>
       </c>
       <c r="AF43" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>-0.18</v>
       </c>
       <c r="AG43" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.42</v>
       </c>
       <c r="AH43" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.21</v>
       </c>
       <c r="AI43" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AJ43" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>9.999999999999995E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="11">
@@ -4180,67 +4298,67 @@
         <v>10</v>
       </c>
       <c r="W44" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="X44" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Y44" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Z44" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB44" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AC44" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.31</v>
       </c>
       <c r="AD44" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>-0.3</v>
       </c>
       <c r="AE44" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-0.08</v>
       </c>
       <c r="AF44" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>-0.16999999999999998</v>
       </c>
       <c r="AG44" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.31</v>
       </c>
       <c r="AH44" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.21</v>
       </c>
       <c r="AI44" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="AJ44" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="8">
@@ -4301,67 +4419,67 @@
         <v>11</v>
       </c>
       <c r="W45" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="X45" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="Y45" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>2.9999999999999916E-2</v>
       </c>
       <c r="Z45" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA45" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB45" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AC45" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.27</v>
       </c>
       <c r="AD45" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>-0.33</v>
       </c>
       <c r="AE45" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-3.0000000000000006E-2</v>
       </c>
       <c r="AF45" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>-0.13</v>
       </c>
       <c r="AG45" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.42000000000000004</v>
       </c>
       <c r="AH45" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.29000000000000004</v>
       </c>
       <c r="AI45" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="AJ45" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-1.9999999999999962E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="20.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="11">
@@ -4422,67 +4540,67 @@
         <v>12</v>
       </c>
       <c r="W46" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="X46" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="Y46" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="Z46" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AA46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AB46" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC46" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AD46" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>-0.33</v>
       </c>
       <c r="AE46" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-0.25</v>
       </c>
       <c r="AF46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>-0.34</v>
       </c>
       <c r="AG46" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.19</v>
       </c>
       <c r="AH46" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AI46" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AJ46" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-0.26999999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="10.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="8">
@@ -4543,67 +4661,67 @@
         <v>13</v>
       </c>
       <c r="W47" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="X47" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="Y47" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="Z47" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.31</v>
       </c>
       <c r="AA47" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.27</v>
       </c>
       <c r="AB47" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AC47" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AD47" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>-0.51</v>
       </c>
       <c r="AE47" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-0.41</v>
       </c>
       <c r="AF47" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>-0.54</v>
       </c>
       <c r="AG47" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AH47" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-0.15000000000000002</v>
       </c>
       <c r="AI47" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="AJ47" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-0.38</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="11">
@@ -4664,67 +4782,67 @@
         <v>5</v>
       </c>
       <c r="W48" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>-0.49</v>
       </c>
       <c r="X48" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>-0.55000000000000004</v>
       </c>
       <c r="Y48" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>-0.55000000000000004</v>
       </c>
       <c r="Z48" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>-0.3</v>
       </c>
       <c r="AA48" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>-0.33</v>
       </c>
       <c r="AB48" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>-0.33</v>
       </c>
       <c r="AC48" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>-0.51</v>
       </c>
       <c r="AD48" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AE48" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AF48" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.33</v>
       </c>
       <c r="AG48" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.16</v>
       </c>
       <c r="AH48" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AI48" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-0.69</v>
       </c>
       <c r="AJ48" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-0.22999999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="8">
@@ -4785,67 +4903,67 @@
         <v>6</v>
       </c>
       <c r="W49" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>-0.15</v>
       </c>
       <c r="X49" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>-0.18000000000000002</v>
       </c>
       <c r="Y49" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>-0.12</v>
       </c>
       <c r="Z49" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>-0.08</v>
       </c>
       <c r="AA49" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>-3.0000000000000006E-2</v>
       </c>
       <c r="AB49" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>-0.25</v>
       </c>
       <c r="AC49" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>-0.41</v>
       </c>
       <c r="AD49" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AE49" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AF49" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>-7.999999999999996E-2</v>
       </c>
       <c r="AG49" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>-6.9999999999999951E-2</v>
       </c>
       <c r="AH49" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="AI49" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-0.45</v>
       </c>
       <c r="AJ49" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-0.33</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="11">
@@ -4906,67 +5024,67 @@
         <v>7</v>
       </c>
       <c r="W50" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>-0.26</v>
       </c>
       <c r="X50" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>-0.26</v>
       </c>
       <c r="Y50" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>-0.18</v>
       </c>
       <c r="Z50" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>-0.16999999999999998</v>
       </c>
       <c r="AA50" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>-0.13</v>
       </c>
       <c r="AB50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>-0.34</v>
       </c>
       <c r="AC50" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>-0.54</v>
       </c>
       <c r="AD50" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.33</v>
       </c>
       <c r="AE50" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-7.999999999999996E-2</v>
       </c>
       <c r="AF50" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AG50" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>-0.37</v>
       </c>
       <c r="AH50" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-0.26</v>
       </c>
       <c r="AI50" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-0.44</v>
       </c>
       <c r="AJ50" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-0.27</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="8">
@@ -5027,67 +5145,67 @@
         <v>9</v>
       </c>
       <c r="W51" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.24000000000000002</v>
       </c>
       <c r="X51" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.31999999999999995</v>
       </c>
       <c r="Y51" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.42</v>
       </c>
       <c r="Z51" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.31</v>
       </c>
       <c r="AA51" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.42000000000000004</v>
       </c>
       <c r="AB51" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.19</v>
       </c>
       <c r="AC51" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD51" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.16</v>
       </c>
       <c r="AE51" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-6.9999999999999951E-2</v>
       </c>
       <c r="AF51" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>-0.37</v>
       </c>
       <c r="AG51" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH51" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-0.20999999999999996</v>
       </c>
       <c r="AI51" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.13</v>
       </c>
       <c r="AJ51" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="11">
@@ -5148,68 +5266,68 @@
         <v>8</v>
       </c>
       <c r="W52" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="X52" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.22</v>
       </c>
       <c r="Y52" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.21</v>
       </c>
       <c r="Z52" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.21</v>
       </c>
       <c r="AA52" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.29000000000000004</v>
       </c>
       <c r="AB52" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AC52" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>-0.15000000000000002</v>
       </c>
       <c r="AD52" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AE52" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="AF52" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>-0.26</v>
       </c>
       <c r="AG52" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>-0.20999999999999996</v>
       </c>
       <c r="AH52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AI52" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-0.32</v>
       </c>
       <c r="AJ52" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-0.25</v>
       </c>
       <c r="AK52" s="8"/>
     </row>
-    <row r="53" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="8">
@@ -5270,59 +5388,59 @@
         <v>14</v>
       </c>
       <c r="W53" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.13999999999999996</v>
       </c>
       <c r="X53" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.12000000000000005</v>
       </c>
       <c r="Y53" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Z53" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="AA53" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="AB53" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AC53" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="AD53" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>-0.69</v>
       </c>
       <c r="AE53" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-0.45</v>
       </c>
       <c r="AF53" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>-0.44</v>
       </c>
       <c r="AG53" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.13</v>
       </c>
       <c r="AH53" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-0.32</v>
       </c>
       <c r="AI53" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AJ53" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-0.29000000000000004</v>
       </c>
       <c r="AK53" s="8">
@@ -5330,11 +5448,11 @@
         <v>-0.69</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="11">
@@ -5395,59 +5513,59 @@
         <v>15</v>
       </c>
       <c r="W54" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
       <c r="X54" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.03</v>
       </c>
       <c r="Y54" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>9.999999999999995E-3</v>
       </c>
       <c r="Z54" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>-4.0000000000000008E-2</v>
       </c>
       <c r="AA54" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AB54" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>-0.26999999999999996</v>
       </c>
       <c r="AC54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>-0.38</v>
       </c>
       <c r="AD54" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>-0.22999999999999998</v>
       </c>
       <c r="AE54" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-0.33</v>
       </c>
       <c r="AF54" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>-0.27</v>
       </c>
       <c r="AG54" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AH54" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-0.25</v>
       </c>
       <c r="AI54" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-0.29000000000000004</v>
       </c>
       <c r="AJ54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK54" s="8">
@@ -5455,16 +5573,1110 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="67" spans="1:21" ht="71.650000000000006" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K67" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L67" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M67" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="N67" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="O67" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="P67" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q67" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R67" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="S67" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="T67" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="U67" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E68" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="F68" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G68" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="H68" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="I68" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="J68" s="11">
+        <v>-0.31</v>
+      </c>
+      <c r="K68" s="11">
+        <v>-0.11</v>
+      </c>
+      <c r="L68" s="11">
+        <v>-0.47</v>
+      </c>
+      <c r="M68" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="N68" s="11">
+        <v>-0.18</v>
+      </c>
+      <c r="O68" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="P68" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Q68" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R68" s="37">
+        <v>0.1449</v>
+      </c>
+      <c r="S68" s="37">
+        <v>1.12E-2</v>
+      </c>
+      <c r="T68" s="37">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="U68" s="37">
+        <v>0.14230000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J69" s="11">
+        <v>-0.3</v>
+      </c>
+      <c r="K69" s="11">
+        <v>-0.12</v>
+      </c>
+      <c r="L69" s="11">
+        <v>-0.45</v>
+      </c>
+      <c r="M69" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="N69" s="11">
+        <v>-0.16</v>
+      </c>
+      <c r="O69" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="P69" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="Q69" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="R69" s="39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S69" s="39">
+        <v>1.23E-2</v>
+      </c>
+      <c r="T69" s="39">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="U69" s="39">
+        <v>0.1598</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="D70" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="G70" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="I70" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="J70" s="11">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K70" s="11">
+        <v>-0.11</v>
+      </c>
+      <c r="L70" s="11">
+        <v>-0.44</v>
+      </c>
+      <c r="M70" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="N70" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="O70" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P70" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Q70" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="R70" s="37">
+        <v>0.13070000000000001</v>
+      </c>
+      <c r="S70" s="37">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="T70" s="37">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="U70" s="37">
+        <v>0.1807</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="D71" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="E71" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="I71" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="J71" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="K71" s="11">
+        <v>-0.09</v>
+      </c>
+      <c r="L71" s="11">
+        <v>-0.44</v>
+      </c>
+      <c r="M71" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="N71" s="11">
+        <v>-0.11</v>
+      </c>
+      <c r="O71" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P71" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q71" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R71" s="39">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="S71" s="39">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="T71" s="39">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="U71" s="39">
+        <v>0.16539999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="D72" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="E72" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="I72" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="J72" s="11">
+        <v>-0.22</v>
+      </c>
+      <c r="K72" s="11">
+        <v>-0.05</v>
+      </c>
+      <c r="L72" s="11">
+        <v>-0.4</v>
+      </c>
+      <c r="M72" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N72" s="11">
+        <v>-0.08</v>
+      </c>
+      <c r="O72" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P72" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="Q72" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="R72" s="37">
+        <v>8.09E-2</v>
+      </c>
+      <c r="S72" s="37">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T72" s="37">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="U72" s="37">
+        <v>0.1772</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="D73" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="E73" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="F73" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="J73" s="11">
+        <v>-0.23</v>
+      </c>
+      <c r="K73" s="11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L73" s="11">
+        <v>-0.39</v>
+      </c>
+      <c r="M73" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="N73" s="11">
+        <v>-0.08</v>
+      </c>
+      <c r="O73" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="P73" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q73" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="R73" s="39">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="S73" s="39">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="T73" s="39">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="U73" s="39">
+        <v>0.19589999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="D74" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="E74" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" s="11">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="K74" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="L74" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="M74" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="N74" s="11">
+        <v>-0.02</v>
+      </c>
+      <c r="O74" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="P74" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="Q74" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="R74" s="37">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="S74" s="37">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="T74" s="37">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="U74" s="37">
+        <v>0.1719</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="11">
+        <v>-0.31</v>
+      </c>
+      <c r="D75" s="11">
+        <v>-0.3</v>
+      </c>
+      <c r="E75" s="11">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="F75" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="G75" s="11">
+        <v>-0.22</v>
+      </c>
+      <c r="H75" s="11">
+        <v>-0.23</v>
+      </c>
+      <c r="I75" s="11">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="L75" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="M75" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="N75" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O75" s="11">
+        <v>-0.06</v>
+      </c>
+      <c r="P75" s="11">
+        <v>-0.17</v>
+      </c>
+      <c r="Q75" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="R75" s="39">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S75" s="39">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="T75" s="39">
+        <v>2.8E-3</v>
+      </c>
+      <c r="U75" s="39">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="11">
+        <v>-0.11</v>
+      </c>
+      <c r="D76" s="11">
+        <v>-0.12</v>
+      </c>
+      <c r="E76" s="11">
+        <v>-0.11</v>
+      </c>
+      <c r="F76" s="11">
+        <v>-0.09</v>
+      </c>
+      <c r="G76" s="11">
+        <v>-0.05</v>
+      </c>
+      <c r="H76" s="11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I76" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="J76" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="M76" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="N76" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="O76" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="P76" s="11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="Q76" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="R76" s="37">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="S76" s="37">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="T76" s="37">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="U76" s="37">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="11">
+        <v>-0.47</v>
+      </c>
+      <c r="D77" s="11">
+        <v>-0.45</v>
+      </c>
+      <c r="E77" s="11">
+        <v>-0.44</v>
+      </c>
+      <c r="F77" s="11">
+        <v>-0.44</v>
+      </c>
+      <c r="G77" s="11">
+        <v>-0.4</v>
+      </c>
+      <c r="H77" s="11">
+        <v>-0.39</v>
+      </c>
+      <c r="I77" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="J77" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="K77" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="N77" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="O77" s="11">
+        <v>-0.18</v>
+      </c>
+      <c r="P77" s="11">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="Q77" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="R77" s="39">
+        <v>7.85E-2</v>
+      </c>
+      <c r="S77" s="39">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="T77" s="39">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="U77" s="39">
+        <v>0.12820000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="D78" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="E78" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="F78" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="I78" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="J78" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="K78" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="L78" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="O78" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="P78" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="Q78" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="R78" s="37">
+        <v>4.02E-2</v>
+      </c>
+      <c r="S78" s="37">
+        <v>3.3E-3</v>
+      </c>
+      <c r="T78" s="37">
+        <v>1.34E-2</v>
+      </c>
+      <c r="U78" s="37">
+        <v>4.65E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="11">
+        <v>-0.18</v>
+      </c>
+      <c r="D79" s="11">
+        <v>-0.16</v>
+      </c>
+      <c r="E79" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="F79" s="11">
+        <v>-0.11</v>
+      </c>
+      <c r="G79" s="11">
+        <v>-0.08</v>
+      </c>
+      <c r="H79" s="11">
+        <v>-0.08</v>
+      </c>
+      <c r="I79" s="11">
+        <v>-0.02</v>
+      </c>
+      <c r="J79" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K79" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="L79" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="M79" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O79" s="11">
+        <v>-0.02</v>
+      </c>
+      <c r="P79" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="Q79" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="R79" s="39">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="S79" s="39">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="T79" s="39">
+        <v>1.32E-2</v>
+      </c>
+      <c r="U79" s="39">
+        <v>4.5600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="D80" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="E80" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F80" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G80" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="I80" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="J80" s="11">
+        <v>-0.06</v>
+      </c>
+      <c r="K80" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="L80" s="11">
+        <v>-0.18</v>
+      </c>
+      <c r="M80" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="N80" s="11">
+        <v>-0.02</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P80" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="Q80" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="R80" s="37">
+        <v>0.1147</v>
+      </c>
+      <c r="S80" s="37">
+        <v>1.11E-2</v>
+      </c>
+      <c r="T80" s="37">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="U80" s="37">
+        <v>0.12770000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D81" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="E81" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F81" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I81" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="J81" s="11">
+        <v>-0.17</v>
+      </c>
+      <c r="K81" s="11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L81" s="11">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="M81" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="N81" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="O81" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="P81" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q81" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="R81" s="39">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="S81" s="39">
+        <v>1.06E-2</v>
+      </c>
+      <c r="T81" s="39">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="U81" s="39">
+        <v>0.1764</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="D82" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E82" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="F82" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G82" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="I82" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J82" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="K82" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="L82" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="M82" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="N82" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="O82" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="P82" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="Q82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R82" s="37">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="S82" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="T82" s="37">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="U82" s="37">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A83" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="J39:N39"/>
   </mergeCells>
   <conditionalFormatting sqref="AK35:AK36 W23:AJ36">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK52">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:P20">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5476,7 +6688,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK52">
+  <conditionalFormatting sqref="C23:P36">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:P54">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5488,7 +6712,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:P20">
+  <conditionalFormatting sqref="W41:AJ54">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK53:AK54">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5500,7 +6736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:P36">
+  <conditionalFormatting sqref="C68:Q82">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5512,8 +6748,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:P54">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="C68:Q82">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5524,20 +6760,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W41:AJ54">
+  <conditionalFormatting sqref="Q68:Q82">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK53:AK54">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5552,6 +6776,7 @@
     <hyperlink ref="A1" r:id="rId1" xr:uid="{AD3B6412-625F-47E0-861F-BC3A8A10458B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5560,69 +6785,69 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="4" customWidth="1"/>
-    <col min="3" max="5" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.7109375" style="4" customWidth="1"/>
-    <col min="11" max="12" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="10.85546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="5.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.73046875" style="4" customWidth="1"/>
+    <col min="11" max="12" width="5.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="10.86328125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.86328125" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.73046875" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="4"/>
-    <col min="23" max="36" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="36" width="4.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.1328125" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="11.65" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+    </row>
+    <row r="5" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -5672,7 +6897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -5722,7 +6947,7 @@
         <v>0.1205</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
@@ -5772,7 +6997,7 @@
         <v>0.14180000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -5822,7 +7047,7 @@
         <v>0.17419999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -5872,7 +7097,7 @@
         <v>0.1467</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
@@ -5922,7 +7147,7 @@
         <v>0.1462</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
@@ -5972,7 +7197,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -6022,7 +7247,7 @@
         <v>7.0800000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>47</v>
       </c>
@@ -6072,7 +7297,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
@@ -6122,7 +7347,7 @@
         <v>0.1638</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -6172,7 +7397,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>

--- a/misc analysis/Correlation from Portvisualizer.xlsx
+++ b/misc analysis/Correlation from Portvisualizer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Desktop\portfolio-allocation\misc analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Desktop\Git_Repos\portfolio-allocation\misc analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C9332A-DE95-4726-8F1B-AB5386DD149F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197A0AAA-1CB3-472D-B9F6-1895EC73067B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1EC8239-D76C-4B1B-817A-9402BE5BCB19}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -806,45 +806,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936F9293-0876-43FA-8AA4-D9BE0EABDCE6}">
   <dimension ref="A1:AK83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5:AJ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.86328125" style="4" customWidth="1"/>
-    <col min="3" max="16" width="8.1328125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="4" customWidth="1"/>
+    <col min="3" max="16" width="8.140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="4"/>
-    <col min="23" max="24" width="4.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="36" width="4.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="36" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="11.65" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>39</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:36" ht="40.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -939,22 +939,50 @@
       <c r="T5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="W5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ5" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1029,7 +1057,7 @@
       <c r="AH6" s="14"/>
       <c r="AI6" s="14"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -1091,7 +1119,7 @@
         <v>0.15909999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -1153,7 +1181,7 @@
         <v>0.18060000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1243,7 @@
         <v>0.1653</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
@@ -1279,7 +1307,7 @@
       <c r="Y10" s="18"/>
       <c r="AA10" s="18"/>
     </row>
-    <row r="11" spans="1:36" ht="20.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
@@ -1354,7 +1382,7 @@
       <c r="AH11" s="14"/>
       <c r="AI11" s="14"/>
     </row>
-    <row r="12" spans="1:36" ht="10.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
@@ -1417,7 +1445,7 @@
       </c>
       <c r="AA12" s="19"/>
     </row>
-    <row r="13" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -1479,7 +1507,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -1541,7 +1569,7 @@
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
@@ -1603,7 +1631,7 @@
         <v>0.12770000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1665,7 +1693,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>27</v>
       </c>
@@ -1727,7 +1755,7 @@
         <v>4.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -1789,7 +1817,7 @@
         <v>0.1757</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1851,7 +1879,7 @@
         <v>0.16520000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -1873,7 +1901,7 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
     </row>
-    <row r="21" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -1902,7 +1930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="40.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +2037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
@@ -2130,7 +2158,7 @@
         <v>-6.0000000000000005E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
@@ -2251,7 +2279,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -2372,7 +2400,7 @@
         <v>-3.9999999999999994E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
@@ -2493,7 +2521,7 @@
         <v>-7.9999999999999988E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
@@ -2614,7 +2642,7 @@
         <v>-9.0000000000000024E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="20.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
@@ -2735,7 +2763,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="10.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
@@ -2856,7 +2884,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>24</v>
       </c>
@@ -2977,7 +3005,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>25</v>
       </c>
@@ -3098,7 +3126,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>26</v>
       </c>
@@ -3219,7 +3247,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>28</v>
       </c>
@@ -3340,7 +3368,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>27</v>
       </c>
@@ -3461,7 +3489,7 @@
         <v>-0.23000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
@@ -3586,7 +3614,7 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>34</v>
       </c>
@@ -3711,12 +3739,12 @@
         <v>0.21999999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="41" t="s">
@@ -3763,7 +3791,7 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
     </row>
-    <row r="40" spans="1:37" ht="40.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>0</v>
       </c>
@@ -3870,7 +3898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>20</v>
       </c>
@@ -3991,7 +4019,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>22</v>
       </c>
@@ -4112,7 +4140,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>23</v>
       </c>
@@ -4233,7 +4261,7 @@
         <v>9.999999999999995E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>29</v>
       </c>
@@ -4354,7 +4382,7 @@
         <v>-4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>30</v>
       </c>
@@ -4475,7 +4503,7 @@
         <v>-1.9999999999999962E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="20.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>31</v>
       </c>
@@ -4596,7 +4624,7 @@
         <v>-0.26999999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="10.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>32</v>
       </c>
@@ -4717,7 +4745,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>24</v>
       </c>
@@ -4838,7 +4866,7 @@
         <v>-0.22999999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -4959,7 +4987,7 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>26</v>
       </c>
@@ -5080,7 +5108,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>28</v>
       </c>
@@ -5201,7 +5229,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>27</v>
       </c>
@@ -5323,7 +5351,7 @@
       </c>
       <c r="AK52" s="8"/>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>33</v>
       </c>
@@ -5448,7 +5476,7 @@
         <v>-0.69</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>34</v>
       </c>
@@ -5573,12 +5601,12 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="71.650000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:21" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="34" t="s">
         <v>0</v>
       </c>
@@ -5643,7 +5671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
         <v>20</v>
       </c>
@@ -5708,7 +5736,7 @@
         <v>0.14230000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="38" t="s">
         <v>22</v>
       </c>
@@ -5773,7 +5801,7 @@
         <v>0.1598</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
         <v>23</v>
       </c>
@@ -5838,7 +5866,7 @@
         <v>0.1807</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" s="38" t="s">
         <v>29</v>
       </c>
@@ -5903,7 +5931,7 @@
         <v>0.16539999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
         <v>30</v>
       </c>
@@ -5968,7 +5996,7 @@
         <v>0.1772</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A73" s="38" t="s">
         <v>31</v>
       </c>
@@ -6033,7 +6061,7 @@
         <v>0.19589999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
         <v>32</v>
       </c>
@@ -6098,7 +6126,7 @@
         <v>0.1719</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="38" t="s">
         <v>24</v>
       </c>
@@ -6163,7 +6191,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
         <v>25</v>
       </c>
@@ -6228,7 +6256,7 @@
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="38" t="s">
         <v>26</v>
       </c>
@@ -6293,7 +6321,7 @@
         <v>0.12820000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
         <v>28</v>
       </c>
@@ -6358,7 +6386,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="38" t="s">
         <v>27</v>
       </c>
@@ -6423,7 +6451,7 @@
         <v>4.5600000000000002E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
         <v>58</v>
       </c>
@@ -6488,7 +6516,7 @@
         <v>0.12770000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="38" t="s">
         <v>33</v>
       </c>
@@ -6553,7 +6581,7 @@
         <v>0.1764</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
         <v>34</v>
       </c>
@@ -6618,7 +6646,7 @@
         <v>0.16789999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
         <v>59</v>
       </c>
@@ -6788,42 +6816,42 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.86328125" style="4" customWidth="1"/>
-    <col min="3" max="5" width="5.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.73046875" style="4" customWidth="1"/>
-    <col min="11" max="12" width="5.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="10.86328125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.7109375" style="4" customWidth="1"/>
+    <col min="11" max="12" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="10.85546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="4"/>
-    <col min="23" max="36" width="4.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="36" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="11.65" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>39</v>
       </c>
@@ -6847,7 +6875,7 @@
       <c r="S4" s="44"/>
       <c r="T4" s="44"/>
     </row>
-    <row r="5" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -6897,7 +6925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -6947,7 +6975,7 @@
         <v>0.1205</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
@@ -6997,7 +7025,7 @@
         <v>0.14180000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -7047,7 +7075,7 @@
         <v>0.17419999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -7097,7 +7125,7 @@
         <v>0.1467</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
@@ -7147,7 +7175,7 @@
         <v>0.1462</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
@@ -7197,7 +7225,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -7247,7 +7275,7 @@
         <v>7.0800000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>47</v>
       </c>
@@ -7297,7 +7325,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
@@ -7347,7 +7375,7 @@
         <v>0.1638</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="30.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -7397,7 +7425,7 @@
         <v>0.15659999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
